--- a/data/trans_orig/P43C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>222314</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>206248</v>
+        <v>206871</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>239080</v>
+        <v>237085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7361793502996105</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6829784988449839</v>
+        <v>0.6850409983452344</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7916988220375855</v>
+        <v>0.7850924196511754</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>79669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>62903</v>
+        <v>64898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>95735</v>
+        <v>95112</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2638206497003895</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2083011779624146</v>
+        <v>0.2149075803488244</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3170215011550161</v>
+        <v>0.3149590016547653</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>248606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>230152</v>
+        <v>231191</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>265533</v>
+        <v>265165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6773060910255877</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6270294576545969</v>
+        <v>0.629860874720645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7234228015441337</v>
+        <v>0.7224189509712663</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>118445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101518</v>
+        <v>101886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136899</v>
+        <v>135860</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3226939089744124</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2765771984558665</v>
+        <v>0.2775810490287337</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3729705423454032</v>
+        <v>0.370139125279355</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>109319</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>96512</v>
+        <v>96805</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120014</v>
+        <v>121535</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6515530203752783</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5752203989308419</v>
+        <v>0.5769669181298044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7152969335315309</v>
+        <v>0.724359995074084</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>58463</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47768</v>
+        <v>46247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71270</v>
+        <v>70977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3484469796247217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2847030664684691</v>
+        <v>0.275640004925916</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4247796010691582</v>
+        <v>0.4230330818701957</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>400973</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>374048</v>
+        <v>372133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>427144</v>
+        <v>425158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5657270517293365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5277396913346396</v>
+        <v>0.525038076594861</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6026526084570196</v>
+        <v>0.5998491828484785</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>307801</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>281630</v>
+        <v>283616</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>334726</v>
+        <v>336641</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4342729482706636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3973473915429804</v>
+        <v>0.4001508171515215</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4722603086653605</v>
+        <v>0.4749619234051393</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>311915</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>288964</v>
+        <v>287890</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>335238</v>
+        <v>335971</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5575527721805874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5165278062872738</v>
+        <v>0.5146067937993642</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5992434367860583</v>
+        <v>0.6005539463423402</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>247521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>224198</v>
+        <v>223465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>270472</v>
+        <v>271546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4424472278194125</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4007565632139417</v>
+        <v>0.3994460536576598</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4834721937127262</v>
+        <v>0.4853932062006358</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>496149</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>460261</v>
+        <v>463833</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>529671</v>
+        <v>529018</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4063630132897773</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3769692814746015</v>
+        <v>0.3798950426816856</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4338186001156719</v>
+        <v>0.4332838239346426</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>724801</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>691279</v>
+        <v>691932</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>760689</v>
+        <v>757117</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5936369867102227</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5661813998843281</v>
+        <v>0.5667161760653574</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6230307185253986</v>
+        <v>0.6201049573183144</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>1789276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1730677</v>
+        <v>1731986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1842165</v>
+        <v>1842853</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5379699275191159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5203513452842703</v>
+        <v>0.5207449142903628</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5538719897646339</v>
+        <v>0.5540788252734464</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>1536701</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1483812</v>
+        <v>1483124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1595300</v>
+        <v>1593991</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4620300724808842</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4461280102353659</v>
+        <v>0.4459211747265536</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4796486547157289</v>
+        <v>0.4792550857096371</v>
       </c>
     </row>
     <row r="24">
@@ -1381,19 +1381,19 @@
         <v>255926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>239222</v>
+        <v>239704</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268560</v>
+        <v>268849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8163915094901447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7631055008568643</v>
+        <v>0.7646429661663984</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8566910733787577</v>
+        <v>0.857613496239238</v>
       </c>
     </row>
     <row r="5">
@@ -1410,19 +1410,19 @@
         <v>57559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44925</v>
+        <v>44636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74263</v>
+        <v>73781</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1836084905098553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1433089266212424</v>
+        <v>0.1423865037607625</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2368944991431363</v>
+        <v>0.235357033833602</v>
       </c>
     </row>
     <row r="6">
@@ -1472,19 +1472,19 @@
         <v>271931</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>256136</v>
+        <v>256892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284586</v>
+        <v>285554</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8175932987878316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7701059204191869</v>
+        <v>0.7723774962060427</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8556428720120509</v>
+        <v>0.8585529925592352</v>
       </c>
     </row>
     <row r="8">
@@ -1501,19 +1501,19 @@
         <v>60668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>48013</v>
+        <v>47045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76463</v>
+        <v>75707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1824067012121685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.144357127987949</v>
+        <v>0.1414470074407648</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2298940795808131</v>
+        <v>0.2276225037939578</v>
       </c>
     </row>
     <row r="9">
@@ -1563,19 +1563,19 @@
         <v>175641</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161021</v>
+        <v>159768</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>189705</v>
+        <v>190829</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6834307613911627</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6265452001128933</v>
+        <v>0.6216666548982339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7381536394255568</v>
+        <v>0.7425276356390381</v>
       </c>
     </row>
     <row r="11">
@@ -1592,19 +1592,19 @@
         <v>81358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67294</v>
+        <v>66170</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>95978</v>
+        <v>97231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3165692386088373</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2618463605744432</v>
+        <v>0.2574723643609619</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3734547998871066</v>
+        <v>0.3783333451017655</v>
       </c>
     </row>
     <row r="12">
@@ -1654,19 +1654,19 @@
         <v>551897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>527074</v>
+        <v>525241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>575654</v>
+        <v>578571</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7246892644523127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6920952814439658</v>
+        <v>0.6896886158988299</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.755884374330305</v>
+        <v>0.75971474146783</v>
       </c>
     </row>
     <row r="14">
@@ -1683,19 +1683,19 @@
         <v>209666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185909</v>
+        <v>182992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>234489</v>
+        <v>236322</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2753107355476872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2441156256696949</v>
+        <v>0.2402852585321705</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3079047185560341</v>
+        <v>0.3103113841011702</v>
       </c>
     </row>
     <row r="15">
@@ -1745,19 +1745,19 @@
         <v>482176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454678</v>
+        <v>453382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>510679</v>
+        <v>509849</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6392318131287772</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6027770988676803</v>
+        <v>0.6010584446465197</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6770183032541516</v>
+        <v>0.6759174633018575</v>
       </c>
     </row>
     <row r="17">
@@ -1774,19 +1774,19 @@
         <v>272130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243627</v>
+        <v>244457</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>299628</v>
+        <v>300924</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3607681868712228</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3229816967458484</v>
+        <v>0.3240825366981423</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3972229011323194</v>
+        <v>0.3989415553534799</v>
       </c>
     </row>
     <row r="18">
@@ -1836,19 +1836,19 @@
         <v>551209</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>517846</v>
+        <v>518040</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>585554</v>
+        <v>582871</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.502841784293597</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.472406674761169</v>
+        <v>0.4725837702459454</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.534173104929091</v>
+        <v>0.531726209862838</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>544978</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>510633</v>
+        <v>513316</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>578341</v>
+        <v>578147</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.497158215706403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4658268950709091</v>
+        <v>0.4682737901371617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5275933252388311</v>
+        <v>0.5274162297540544</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>2288781</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2233300</v>
+        <v>2231576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2348714</v>
+        <v>2344041</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6511207432436698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6353373775226577</v>
+        <v>0.6348470505552242</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.668170942322145</v>
+        <v>0.6668413449491315</v>
       </c>
     </row>
     <row r="23">
@@ -1956,19 +1956,19 @@
         <v>1226359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1166426</v>
+        <v>1171099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1281840</v>
+        <v>1283564</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3488792567563303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.331829057677855</v>
+        <v>0.3331586550508684</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3646626224773424</v>
+        <v>0.3651529494447757</v>
       </c>
     </row>
     <row r="24">
@@ -2138,19 +2138,19 @@
         <v>271170</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>255606</v>
+        <v>255284</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284939</v>
+        <v>284958</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7895931335020275</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7442735254608889</v>
+        <v>0.7433353757167305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8296865583943825</v>
+        <v>0.829739812095073</v>
       </c>
     </row>
     <row r="5">
@@ -2167,19 +2167,19 @@
         <v>72260</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58491</v>
+        <v>58472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>87824</v>
+        <v>88146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2104068664979725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1703134416056174</v>
+        <v>0.1702601879049269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2557264745391111</v>
+        <v>0.2566646242832695</v>
       </c>
     </row>
     <row r="6">
@@ -2229,19 +2229,19 @@
         <v>301605</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>284340</v>
+        <v>286052</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>315821</v>
+        <v>316933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8145050704433365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7678791432767047</v>
+        <v>0.7725047198155406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.852898058917158</v>
+        <v>0.8559006123610715</v>
       </c>
     </row>
     <row r="8">
@@ -2258,19 +2258,19 @@
         <v>68687</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54471</v>
+        <v>53359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85952</v>
+        <v>84240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1854949295566634</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.147101941082842</v>
+        <v>0.1440993876389285</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2321208567232952</v>
+        <v>0.2274952801844594</v>
       </c>
     </row>
     <row r="9">
@@ -2320,19 +2320,19 @@
         <v>119804</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107808</v>
+        <v>108025</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132452</v>
+        <v>130802</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7211791341923077</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6489650961580208</v>
+        <v>0.6502730189668482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7973105567452209</v>
+        <v>0.787380121461166</v>
       </c>
     </row>
     <row r="11">
@@ -2349,19 +2349,19 @@
         <v>46319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33671</v>
+        <v>35321</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58315</v>
+        <v>58098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2788208658076923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2026894432547794</v>
+        <v>0.2126198785388341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3510349038419793</v>
+        <v>0.3497269810331519</v>
       </c>
     </row>
     <row r="12">
@@ -2411,19 +2411,19 @@
         <v>574470</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>546496</v>
+        <v>544755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>598231</v>
+        <v>598003</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.701226721663711</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6670796295658777</v>
+        <v>0.6649547611179787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7302304708288225</v>
+        <v>0.7299521645729906</v>
       </c>
     </row>
     <row r="14">
@@ -2440,19 +2440,19 @@
         <v>244766</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>221005</v>
+        <v>221233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>272740</v>
+        <v>274481</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.298773278336289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2697695291711774</v>
+        <v>0.2700478354270094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3329203704341221</v>
+        <v>0.3350452388820211</v>
       </c>
     </row>
     <row r="15">
@@ -2502,19 +2502,19 @@
         <v>452968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>424064</v>
+        <v>426500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>479390</v>
+        <v>479814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6196850854345303</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5801420335845897</v>
+        <v>0.5834759180495906</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6558310261807244</v>
+        <v>0.6564112289403621</v>
       </c>
     </row>
     <row r="17">
@@ -2531,19 +2531,19 @@
         <v>277997</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251575</v>
+        <v>251151</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>306901</v>
+        <v>304465</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3803149145654697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3441689738192756</v>
+        <v>0.3435887710596379</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4198579664154102</v>
+        <v>0.4165240819504094</v>
       </c>
     </row>
     <row r="18">
@@ -2593,19 +2593,19 @@
         <v>513553</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>480171</v>
+        <v>481294</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>548923</v>
+        <v>547906</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4828078732348784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4514241128239997</v>
+        <v>0.4524799245955611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5160603215975496</v>
+        <v>0.5151043763213758</v>
       </c>
     </row>
     <row r="20">
@@ -2622,19 +2622,19 @@
         <v>550127</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>514757</v>
+        <v>515774</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>583509</v>
+        <v>582386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5171921267651216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4839396784024504</v>
+        <v>0.4848956236786242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5485758871760004</v>
+        <v>0.5475200754044386</v>
       </c>
     </row>
     <row r="21">
@@ -2684,19 +2684,19 @@
         <v>2233570</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2178818</v>
+        <v>2178300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2292849</v>
+        <v>2294029</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6393089930710288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6236376335632904</v>
+        <v>0.6234893364186471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6562763409012966</v>
+        <v>0.6566142008188685</v>
       </c>
     </row>
     <row r="23">
@@ -2713,19 +2713,19 @@
         <v>1260155</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1200876</v>
+        <v>1199696</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1314907</v>
+        <v>1315425</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3606910069289712</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3437236590987033</v>
+        <v>0.3433857991811311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3763623664367097</v>
+        <v>0.3765106635813522</v>
       </c>
     </row>
     <row r="24">
@@ -2895,19 +2895,19 @@
         <v>250586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>234023</v>
+        <v>234255</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>264410</v>
+        <v>264647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7424334476735033</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6933605800155132</v>
+        <v>0.6940475727217178</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.783389756768219</v>
+        <v>0.7840918331883332</v>
       </c>
     </row>
     <row r="5">
@@ -2924,19 +2924,19 @@
         <v>86934</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73110</v>
+        <v>72873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103497</v>
+        <v>103265</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2575665523264967</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2166102432317811</v>
+        <v>0.2159081668116667</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.306639419984487</v>
+        <v>0.3059524272782821</v>
       </c>
     </row>
     <row r="6">
@@ -2986,19 +2986,19 @@
         <v>230110</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>216568</v>
+        <v>215646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>242807</v>
+        <v>242389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7480567440846535</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7040308243185451</v>
+        <v>0.701034914775311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.789331525984633</v>
+        <v>0.7879725457692398</v>
       </c>
     </row>
     <row r="8">
@@ -3015,19 +3015,19 @@
         <v>77501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64804</v>
+        <v>65222</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>91043</v>
+        <v>91965</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2519432559153464</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.210668474015367</v>
+        <v>0.2120274542307603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2959691756814548</v>
+        <v>0.2989650852246892</v>
       </c>
     </row>
     <row r="9">
@@ -3077,19 +3077,19 @@
         <v>81404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70871</v>
+        <v>71670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91357</v>
+        <v>90518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6185884257943406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.538546968388473</v>
+        <v>0.5446174067501545</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6942179749521937</v>
+        <v>0.6878430798258286</v>
       </c>
     </row>
     <row r="11">
@@ -3106,19 +3106,19 @@
         <v>50193</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40240</v>
+        <v>41079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>60726</v>
+        <v>59927</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3814115742056594</v>
+        <v>0.3814115742056595</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3057820250478062</v>
+        <v>0.3121569201741715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4614530316115267</v>
+        <v>0.4553825932498455</v>
       </c>
     </row>
     <row r="12">
@@ -3168,19 +3168,19 @@
         <v>397476</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>376064</v>
+        <v>374860</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>417254</v>
+        <v>416859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6445015872624187</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6097821696215571</v>
+        <v>0.6078300398649498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6765713193783393</v>
+        <v>0.6759314873263529</v>
       </c>
     </row>
     <row r="14">
@@ -3197,19 +3197,19 @@
         <v>219242</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>199464</v>
+        <v>199859</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240654</v>
+        <v>241858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3554984127375813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3234286806216607</v>
+        <v>0.324068512673647</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3902178303784429</v>
+        <v>0.3921699601350503</v>
       </c>
     </row>
     <row r="15">
@@ -3259,19 +3259,19 @@
         <v>326666</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>305573</v>
+        <v>305706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347833</v>
+        <v>348941</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.510370041466259</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4774139331166328</v>
+        <v>0.477621961630293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5434403219195385</v>
+        <v>0.5451703613326609</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>313392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>292225</v>
+        <v>291117</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>334485</v>
+        <v>334352</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.489629958533741</v>
+        <v>0.4896299585337409</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4565596780804616</v>
+        <v>0.4548296386673388</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5225860668833672</v>
+        <v>0.5223780383697069</v>
       </c>
     </row>
     <row r="18">
@@ -3350,19 +3350,19 @@
         <v>284273</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>257874</v>
+        <v>261445</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>308783</v>
+        <v>309080</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4208357553652478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3817545724160065</v>
+        <v>0.3870421715180491</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4571202220082695</v>
+        <v>0.457560262484405</v>
       </c>
     </row>
     <row r="20">
@@ -3379,19 +3379,19 @@
         <v>391223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>366713</v>
+        <v>366416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>417622</v>
+        <v>414051</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5791642446347521</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5428797779917304</v>
+        <v>0.542439737515595</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6182454275839934</v>
+        <v>0.6129578284819508</v>
       </c>
     </row>
     <row r="21">
@@ -3441,19 +3441,19 @@
         <v>1570516</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1528791</v>
+        <v>1521751</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1618398</v>
+        <v>1617113</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5797401364875471</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5643377193630449</v>
+        <v>0.5617389594648107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5974154293922249</v>
+        <v>0.5969409204901533</v>
       </c>
     </row>
     <row r="23">
@@ -3470,19 +3470,19 @@
         <v>1138484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1090602</v>
+        <v>1091887</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1180209</v>
+        <v>1187249</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4202598635124529</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.402584570607775</v>
+        <v>0.4030590795098468</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.435662280636955</v>
+        <v>0.4382610405351893</v>
       </c>
     </row>
     <row r="24">
